--- a/xlsx/勒索_intext.xlsx
+++ b/xlsx/勒索_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E5%9A%87</t>
   </si>
   <si>
-    <t>恐嚇</t>
+    <t>恐吓</t>
   </si>
   <si>
     <t>政策_政策_政治_勒索</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0</t>
   </si>
   <si>
-    <t>刑罰</t>
+    <t>刑罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E6%A1%88</t>
